--- a/Assets/StreamingAssets/StoryScript9.xlsx
+++ b/Assets/StreamingAssets/StoryScript9.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{195998EA-AE4A-0843-B4DF-0DFF242B5616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF34D66-CBD5-2D48-AE4B-37122B9F2D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7140" yWindow="840" windowWidth="28800" windowHeight="15860" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15860" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -185,15 +185,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Only two people remain. Let’s begin the final round of questioning!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>9_Lee</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>9_Kong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only three people remain. Let’s begin the final round of questioning!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -602,7 +602,7 @@
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -784,7 +784,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
         <v>30</v>
@@ -810,7 +810,7 @@
         <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
@@ -830,7 +830,7 @@
         <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>

--- a/Assets/StreamingAssets/StoryScript9.xlsx
+++ b/Assets/StreamingAssets/StoryScript9.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF34D66-CBD5-2D48-AE4B-37122B9F2D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D93598-4170-5649-85CF-EBE5106AC320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15860" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
   </bookViews>
@@ -181,10 +181,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Judging by strength alone, it seems unlikely that someone like him could overpower the highly skilled Lord Xu.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>9_Lee</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -194,6 +190,10 @@
   </si>
   <si>
     <t>Only three people remain. Let’s begin the final round of questioning!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Judging by strength alone, it seems unlikely that someone like him could overpower the highly skilled the Lord.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -602,7 +602,7 @@
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -761,7 +761,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
         <v>24</v>
@@ -784,7 +784,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
         <v>30</v>
@@ -810,7 +810,7 @@
         <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
@@ -830,7 +830,7 @@
         <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>

--- a/Assets/StreamingAssets/StoryScript9.xlsx
+++ b/Assets/StreamingAssets/StoryScript9.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D93598-4170-5649-85CF-EBE5106AC320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA7BEDE-DEB0-8D41-8587-6796A0904848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15860" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="39">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -135,10 +135,6 @@
   </si>
   <si>
     <t>Dee-Thinking2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dee-Thinking1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -602,7 +598,7 @@
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="H4" sqref="H4:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -673,10 +669,10 @@
         <v>22</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -703,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="34">
@@ -711,10 +707,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -734,7 +730,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
         <v>24</v>
@@ -746,12 +742,8 @@
         <v>20</v>
       </c>
       <c r="G4" s="3"/>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -761,7 +753,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
         <v>24</v>
@@ -784,10 +776,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
@@ -807,10 +799,10 @@
         <v>23</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
@@ -827,10 +819,10 @@
     </row>
     <row r="8" spans="1:16" ht="17">
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
@@ -851,7 +843,7 @@
     </row>
     <row r="9" spans="1:16">
       <c r="C9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
